--- a/Bibsam_tidskriftslistor/scifree_data_markallen.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_markallen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>https://www.magonlinelibrary.com/loi/bjsn</t>
+  </si>
+  <si>
+    <t>Dental Nursing</t>
+  </si>
+  <si>
+    <t>1759-7404</t>
+  </si>
+  <si>
+    <t>https://www.markallengroup.com/brands/dental-nursing/</t>
   </si>
 </sst>
 </file>
@@ -252,7 +261,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -263,6 +290,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G19"/>
+  <sortState ref="A2:G19">
+    <sortCondition ref="D1:D19"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Imprint"/>
+    <tableColumn id="2" name="ISSN Electronic"/>
+    <tableColumn id="3" name="ISSN Print"/>
+    <tableColumn id="4" name="Journal Name"/>
+    <tableColumn id="5" name="JournalURL"/>
+    <tableColumn id="6" name="Publishing model"/>
+    <tableColumn id="7" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,23 +574,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,319 +612,319 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
       <c r="F17" t="s">
         <v>43</v>
       </c>
@@ -887,7 +932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -904,11 +949,34 @@
         <v>43</v>
       </c>
       <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_markallen.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_markallen.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_0A8D1EA792B46817A111619D6706502DC328179D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C5B0EDC-6514-4CB6-914F-74A4F0DB2198}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -211,22 +212,23 @@
   </si>
   <si>
     <t>https://www.markallengroup.com/brands/dental-nursing/</t>
+  </si>
+  <si>
+    <t>2753-5932</t>
+  </si>
+  <si>
+    <t>International Journal for Advancing Practice</t>
+  </si>
+  <si>
+    <t>https://www.magonlinelibrary.com/journal/ijap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -254,32 +256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -293,19 +276,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G19"/>
-  <sortState ref="A2:G19">
-    <sortCondition ref="D1:D19"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC8211A5-32B4-4541-A3FA-6912D42B28CE}" name="Table2" displayName="Table2" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{CC8211A5-32B4-4541-A3FA-6912D42B28CE}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{34F37DCA-4E06-469C-AB38-81B0C859B87A}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{A161A534-C4D3-47E1-BD1B-53256E95C5BE}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{B1B94937-F14B-4D62-964B-F4F6C2AACDBE}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{F1B3140D-8BA2-4B46-AEBD-7C74967386BC}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{CF1BE473-9772-46B0-8354-C3ED48C4AE83}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{291093EF-9C24-4C62-8B43-FC058B98D336}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{CE9EF97B-882B-4418-917F-F22CD53F6D9B}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,42 +553,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C46D9F-CD22-43C6-A268-C6922FC6C421}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -857,13 +839,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
@@ -877,13 +859,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
@@ -897,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
@@ -917,13 +899,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
@@ -937,13 +919,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
         <v>43</v>
@@ -957,26 +939,45 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_markallen.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_markallen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_0A8D1EA792B46817A111619D6706502DC328179D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C5B0EDC-6514-4CB6-914F-74A4F0DB2198}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_0A8D1EA792B46817A111619D6706502DC328179D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FCF2224-EDBD-4031-BB51-D4143124ECDD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -70,15 +70,9 @@
     <t>International Journal of Palliative Nursing</t>
   </si>
   <si>
-    <t xml:space="preserve">Journal of Health Visiting </t>
-  </si>
-  <si>
     <t>Journal of Kidney Care</t>
   </si>
   <si>
-    <t>Nurse Prescribing/Journal of Prescribing Practice</t>
-  </si>
-  <si>
     <t xml:space="preserve">African Journal of Midwifery and Women's Health </t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>2052-286X</t>
   </si>
   <si>
-    <t>2052-2908</t>
-  </si>
-  <si>
     <t>2397-9542</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>https://www.magonlinelibrary.com/journal/ijpn</t>
   </si>
   <si>
-    <t>https://www.magonlinelibrary.com/journal/johv</t>
-  </si>
-  <si>
     <t>https://www.magonlinelibrary.com/journal/jokc</t>
   </si>
   <si>
@@ -221,6 +209,21 @@
   </si>
   <si>
     <t>https://www.magonlinelibrary.com/journal/ijap</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Journal of Prescribing Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3049-5229 </t>
+  </si>
+  <si>
+    <t>Journal of Family and Child Health</t>
+  </si>
+  <si>
+    <t>https://www.magonlinelibrary.com/journal/jfch</t>
   </si>
 </sst>
 </file>
@@ -276,16 +279,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC8211A5-32B4-4541-A3FA-6912D42B28CE}" name="Table2" displayName="Table2" ref="A1:G20" totalsRowShown="0">
-  <autoFilter ref="A1:G20" xr:uid="{CC8211A5-32B4-4541-A3FA-6912D42B28CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF5B1489-08A2-44C7-9FF8-2BD2D67B8614}" name="Table1" displayName="Table1" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{EF5B1489-08A2-44C7-9FF8-2BD2D67B8614}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
+    <sortCondition ref="D1:D20"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{34F37DCA-4E06-469C-AB38-81B0C859B87A}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{A161A534-C4D3-47E1-BD1B-53256E95C5BE}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{B1B94937-F14B-4D62-964B-F4F6C2AACDBE}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{F1B3140D-8BA2-4B46-AEBD-7C74967386BC}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{CF1BE473-9772-46B0-8354-C3ED48C4AE83}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{291093EF-9C24-4C62-8B43-FC058B98D336}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{CE9EF97B-882B-4418-917F-F22CD53F6D9B}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{219C8427-6CA8-4AC2-8AE0-821699F20E16}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{8E5C6029-6FCB-4B94-93E4-4C3C34A9F7C5}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{E2841EB3-5084-4929-A439-0A23EE544718}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{6BCAB224-BD40-499B-A620-D2DC94BCB86A}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{C8747F23-FDB3-4BA6-8575-D197D5B1C93E}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{DB2BBF42-F518-4A1E-95CA-38EEA04006F2}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{EDC334DB-3246-41E1-AE44-33161B2E2DD7}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C46D9F-CD22-43C6-A268-C6922FC6C421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A7CC99-7169-4760-9207-6C67A51C3FF7}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -565,8 +571,8 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
@@ -599,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,19 +625,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,19 +645,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,19 +665,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,19 +685,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,19 +705,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,19 +725,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,19 +745,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,19 +765,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -779,19 +785,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,19 +805,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,19 +825,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,19 +845,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,19 +865,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,19 +885,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -899,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,19 +925,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,19 +945,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,19 +965,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
